--- a/Project_2/results.xlsx
+++ b/Project_2/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mouta\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mouta\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1819D5-36EF-4BD5-9C2F-804D21025B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9AF313-E714-475B-AF4D-6B693FEA9AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F7873934-B801-4B17-ABE3-B72D53D3A4B6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F7873934-B801-4B17-ABE3-B72D53D3A4B6}"/>
   </bookViews>
   <sheets>
     <sheet name="100mb" sheetId="2" r:id="rId1"/>
@@ -425,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753EC555-5029-487C-BEF5-D2770AC8DFF8}">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="Q47" sqref="Q47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2046,8 +2046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53A1F03-C11E-4CC1-8528-087343D99B3A}">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
